--- a/Tapas-Dataset-Parsing/Utils/TranslatedTable/target/1.xlsx
+++ b/Tapas-Dataset-Parsing/Utils/TranslatedTable/target/1.xlsx
@@ -1,149 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matagi/Desktop/Git/Table-Parser/Tapas-Dataset-Parsing/Utils/TranslatedTable/target/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5F84F2-A244-7641-A469-3CFEB5969A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="기원을 이루다" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <r>
-      <t xml:space="preserve">계절</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">프리미어</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">준우승</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">점수</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">여백</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">장소</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">출석</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">멜버른</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">콜링우드</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8.14 (62) – 2.2 (14)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">엠씨지</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8.16 (64) – 8.12 (60)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">세인트킬다</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10.14 (74) – 10.13 (73)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">칼턴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17.9 (111) – 14.17 (101)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">노스 멜버른</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10.16 (76) – 9.22 (76)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21.25 (151) – 19.10 (124)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11.16 (82) – 11.11 (77)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">리치먼드</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23.21 (159) – 9.24 (78)</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+  <si>
+    <t>계절</t>
+  </si>
+  <si>
+    <t>프리미어</t>
+  </si>
+  <si>
+    <t>준우승</t>
+  </si>
+  <si>
+    <t>점수</t>
+  </si>
+  <si>
+    <t>여백</t>
+  </si>
+  <si>
+    <t>장소</t>
+  </si>
+  <si>
+    <t>출석</t>
+  </si>
+  <si>
+    <t>멜버른</t>
+  </si>
+  <si>
+    <t>콜링우드</t>
+  </si>
+  <si>
+    <t>8.14 (62) – 2.2 (14)</t>
+  </si>
+  <si>
+    <t>엠씨지</t>
+  </si>
+  <si>
+    <t>8.16 (64) – 8.12 (60)</t>
+  </si>
+  <si>
+    <t>세인트킬다</t>
+  </si>
+  <si>
+    <t>10.14 (74) – 10.13 (73)</t>
+  </si>
+  <si>
+    <t>칼턴</t>
+  </si>
+  <si>
+    <t>17.9 (111) – 14.17 (101)</t>
+  </si>
+  <si>
+    <t>노스 멜버른</t>
+  </si>
+  <si>
+    <t>10.16 (76) – 9.22 (76)</t>
+  </si>
+  <si>
+    <t>21.25 (151) – 19.10 (124)</t>
+  </si>
+  <si>
+    <t>11.16 (82) – 11.11 (77)</t>
+  </si>
+  <si>
+    <t>리치먼드</t>
+  </si>
+  <si>
+    <t>23.21 (159) – 9.24 (78)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -162,12 +129,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -455,18 +431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -492,7 +464,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1960</v>
       </c>
       <c r="B2" t="s">
@@ -504,18 +476,18 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>48</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>97457</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>1964</v>
       </c>
       <c r="B3" t="s">
@@ -527,18 +499,18 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>102469</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>1966</v>
       </c>
       <c r="B4" t="s">
@@ -550,18 +522,18 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>101655</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="n">
+      <c r="A5">
         <v>1970</v>
       </c>
       <c r="B5" t="s">
@@ -573,18 +545,18 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>121696</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="n">
+      <c r="A6">
         <v>1977</v>
       </c>
       <c r="B6" t="s">
@@ -596,18 +568,18 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>108244</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="n">
+      <c r="A7">
         <v>1977</v>
       </c>
       <c r="B7" t="s">
@@ -619,18 +591,18 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>98366</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="n">
+      <c r="A8">
         <v>1979</v>
       </c>
       <c r="B8" t="s">
@@ -642,18 +614,18 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>113545</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="n">
+      <c r="A9">
         <v>1980</v>
       </c>
       <c r="B9" t="s">
@@ -665,17 +637,18 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>81</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>113461</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>